--- a/Data/aearep-115/candidatepackages.xlsx
+++ b/Data/aearep-115/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>makefigures.do</t>
@@ -118,10 +115,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>565</v>
+        <v>499</v>
       </c>
       <c r="C2">
-        <v>0.18733422458171844</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D2"/>
     </row>
@@ -130,10 +127,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>985</v>
+        <v>998</v>
       </c>
       <c r="C3">
-        <v>0.32659152150154114</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D3"/>
     </row>
@@ -142,10 +139,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1423</v>
+        <v>1414</v>
       </c>
       <c r="C4">
-        <v>0.47181698679924011</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D4"/>
     </row>
@@ -154,10 +151,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2000</v>
+        <v>1838</v>
       </c>
       <c r="C5">
-        <v>0.66312998533248901</v>
+        <v>0.60760331153869629</v>
       </c>
       <c r="D5"/>
     </row>
@@ -167,7 +164,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -186,14 +183,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>